--- a/data/Accepted_microtag.xlsx
+++ b/data/Accepted_microtag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\millertp1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD9F7A3-36F0-4613-B7F3-1252FD919019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF365BF1-E740-4253-9C34-C41509B4182A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,6 +405,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
